--- a/resources/feedback.xlsx
+++ b/resources/feedback.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t xml:space="preserve">HT-AJAW-B26</t>
   </si>
@@ -170,6 +170,36 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">21</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jul</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Using mobile network, not possible to continue with the presentation</t>
   </si>
   <si>
@@ -333,6 +363,9 @@
 * Very good performance
 * Improvement areas:
 - should start learning kafka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafka is done</t>
   </si>
   <si>
     <t xml:space="preserve">* Monolithic application
@@ -415,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,11 +489,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,7 +533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,10 +555,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,13 +817,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.39"/>
@@ -813,6 +837,9 @@
       <c r="G1" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -825,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,13 +869,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="307.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,10 +909,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,10 +926,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="283.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,10 +960,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,10 +977,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="284.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,10 +994,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="260" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,10 +1011,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="342.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,10 +1031,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="284.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,10 +1048,10 @@
         <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,10 +1065,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,10 +1082,10 @@
         <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/resources/feedback.xlsx
+++ b/resources/feedback.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t xml:space="preserve">HT-AJAW-B26</t>
   </si>
@@ -289,6 +289,10 @@
 -- started implementing</t>
   </si>
   <si>
+    <t xml:space="preserve">Security with JWT
+- admin can block and unblock</t>
+  </si>
+  <si>
     <t xml:space="preserve">* Microservcie architecture 
 * Completed tasks
 - User can
@@ -322,6 +326,9 @@
 - Need more time to complete project
 - Microservice architecture is ready
 - Swagger is used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security with JWT</t>
   </si>
   <si>
     <t xml:space="preserve">* Microservcie architecture 
@@ -819,11 +826,11 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.39"/>
@@ -948,6 +955,9 @@
       <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -960,10 +970,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,10 +987,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="284.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>33</v>
@@ -1011,13 +1024,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="342.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1044,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>33</v>
@@ -1048,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>33</v>
@@ -1065,7 +1078,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>33</v>
@@ -1082,7 +1095,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>33</v>
